--- a/aipg/src/000.xlsx
+++ b/aipg/src/000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,30 +105,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b13p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b13p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b11p（创建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b99p（删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Sheet</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,26 +141,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>b31p</t>
+  </si>
+  <si>
+    <t>b31p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b31p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b33p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b41p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否忽略Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeadRow</t>
+  </si>
+  <si>
+    <t>maxHeadColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头最大列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b43p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b45p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet最大列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet最大行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>表头最大行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b15p</t>
-  </si>
-  <si>
-    <t>b13p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b13p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b11p（创建）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b99p（删除）</t>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b51p</t>
+  </si>
+  <si>
+    <t>表头对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -458,6 +543,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -738,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,245 +913,533 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="12"/>
       <c r="C7" s="32"/>
-      <c r="D7" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="12"/>
       <c r="C8" s="15"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="43" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="43"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="12"/>
       <c r="C9" s="15"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="39"/>
       <c r="G12" s="20"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
-      <c r="C16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="2" t="s">
-        <v>33</v>
+      <c r="C17" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="15"/>
-      <c r="C19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
+      <c r="C19" s="15"/>
+      <c r="D19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>31</v>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="12"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="26"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="26"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="21"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="52"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="21"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/aipg/src/000.xlsx
+++ b/aipg/src/000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,73 +175,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否忽略Sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHeadRow</t>
+  </si>
+  <si>
+    <t>maxHeadColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头最大列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b43p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b45p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet最大列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet最大行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>表头最大行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b51p</t>
+  </si>
+  <si>
+    <t>表头对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b35p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定义的Sheet类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并单元格信息Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapMergeCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>b41p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否忽略Sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHeadRow</t>
-  </si>
-  <si>
-    <t>maxHeadColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头最大列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b43p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b45p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet最大列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet最大行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>表头最大行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元格内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b51p</t>
-  </si>
-  <si>
-    <t>表头对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>b37p</t>
   </si>
 </sst>
 </file>
@@ -830,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -842,7 +865,7 @@
     <col min="2" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" customWidth="1"/>
-    <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
@@ -1121,7 +1144,7 @@
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>35</v>
@@ -1147,11 +1170,11 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>37</v>
@@ -1162,14 +1185,14 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="41" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
@@ -1177,14 +1200,14 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="41" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="32" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
@@ -1192,14 +1215,14 @@
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="41" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -1207,185 +1230,197 @@
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="41" t="s">
+        <v>40</v>
+      </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>54</v>
+      <c r="H33" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="32" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="32"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="H36" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="34"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="11"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="34"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="24"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="46"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="47" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="15"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="26"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="15"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="26"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="15"/>
@@ -1433,13 +1468,31 @@
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="21"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="27"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="21"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
